--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1057566.051943711</v>
+        <v>1117306.296197975</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914459</v>
+        <v>426806.975891446</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478709</v>
+        <v>12028112.67449084</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8891471.997833852</v>
+        <v>7198879.899393689</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.83011447495538</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,10 +706,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>30.61956288065206</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.61720206838995</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>64.1386326986768</v>
+        <v>234.288905720311</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>112.32049955195</v>
       </c>
       <c r="F6" t="n">
-        <v>69.3421217705996</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.0426595591497</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.3396163656985</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>241.0142888776591</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>104.8061067721145</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>212.9263540093553</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>145.7690681834586</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>187.5601448268047</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>61.40230948893565</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8957288909827</v>
+        <v>164.1254863648505</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.9561866171907</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>73.91737409206868</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
@@ -1627,7 +1627,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>117.1215005544607</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>77.39512657003493</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>28.58965000103594</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>98.23891504710649</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.64958867533</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.9680216153336</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>13.08993799274038</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>41.89771949413792</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
@@ -1900,19 +1900,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>133.1595969788265</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>135.9035971193933</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>169.960106931718</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>156.0900476688795</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>13.08993799274044</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.4184586216305</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>343.700012223458</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>192.5499959179199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,22 +2165,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>41.16551806305338</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>148.2421731387153</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>13.08993799274038</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>53.96470697478837</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>54.42869786879746</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>43.76331341951682</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>13.08993799274038</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>153.9561866171907</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>47.22124123359166</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>27.83739541545915</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
-        <v>133.0094536351697</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>126.6360092824242</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>13.08993799274038</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>45.766149235648</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>124.447890651502</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>122.9808755242954</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>108.0529342638478</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>180.3585974057385</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>161.6635498889342</v>
+        <v>258.7934814998971</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3119,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>3.722778175975543</v>
       </c>
       <c r="G33" t="n">
-        <v>100.8367104035708</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>47.23959131629395</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>47.47529300550336</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>43.85257846779928</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>19.11694526755035</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>74.86757009578068</v>
       </c>
       <c r="G36" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>145.4692693928244</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>24.78104229343514</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>75.46400677166021</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>26.73110927253554</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>80.79258128802718</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.08993799274037</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>18.37692428098347</v>
+        <v>105.7069214195104</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>83.29896986725154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>119.5452544581847</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.23959131629395</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.005789270132</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>7.347263454403059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>129.0744646408861</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.08993799274044</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.3558523848238</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.4348659156472</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="C3" t="n">
-        <v>362.4348659156472</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W3" t="n">
-        <v>946.2620019062019</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X3" t="n">
-        <v>738.4105017006691</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y3" t="n">
-        <v>530.6502029357152</v>
+        <v>290.1981659616912</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F5" t="n">
-        <v>308.7395386897029</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>432.4774131586771</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C6" t="n">
-        <v>432.4774131586771</v>
+        <v>622.424473941237</v>
       </c>
       <c r="D6" t="n">
-        <v>432.4774131586771</v>
+        <v>622.424473941237</v>
       </c>
       <c r="E6" t="n">
-        <v>432.4774131586771</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
         <v>362.4348659156472</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>432.4774131586771</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>432.4774131586771</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X6" t="n">
-        <v>432.4774131586771</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y6" t="n">
-        <v>432.4774131586771</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="7">
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C8" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>385.8037236438013</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C9" t="n">
-        <v>385.8037236438013</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D9" t="n">
-        <v>385.8037236438013</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E9" t="n">
-        <v>279.9389693285341</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>575.56268569933</v>
       </c>
       <c r="V9" t="n">
-        <v>761.8705608694022</v>
+        <v>340.4105774675873</v>
       </c>
       <c r="W9" t="n">
-        <v>761.8705608694022</v>
+        <v>340.4105774675873</v>
       </c>
       <c r="X9" t="n">
-        <v>554.0190606638694</v>
+        <v>340.4105774675873</v>
       </c>
       <c r="Y9" t="n">
-        <v>554.0190606638694</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1194.235634009152</v>
+        <v>687.644794391163</v>
       </c>
       <c r="C11" t="n">
-        <v>825.27311706874</v>
+        <v>687.644794391163</v>
       </c>
       <c r="D11" t="n">
-        <v>467.0074184619895</v>
+        <v>687.644794391163</v>
       </c>
       <c r="E11" t="n">
-        <v>467.0074184619895</v>
+        <v>687.644794391163</v>
       </c>
       <c r="F11" t="n">
-        <v>467.0074184619895</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G11" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2251.532934883916</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U11" t="n">
-        <v>2251.532934883916</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="V11" t="n">
-        <v>1920.470047540346</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="W11" t="n">
-        <v>1567.701392270232</v>
+        <v>1837.849724692176</v>
       </c>
       <c r="X11" t="n">
-        <v>1194.235634009152</v>
+        <v>1464.383966431096</v>
       </c>
       <c r="Y11" t="n">
-        <v>1194.235634009152</v>
+        <v>1074.244634455285</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.7751048338188</v>
+        <v>784.5787559137638</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3220755526918</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3876658914405</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E12" t="n">
-        <v>506.150210885985</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L12" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M12" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N12" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O12" t="n">
         <v>1970.07121469245</v>
@@ -5147,25 +5147,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2321.315195847366</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T12" t="n">
-        <v>2121.953872694535</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U12" t="n">
-        <v>1893.77636876425</v>
+        <v>1857.795356864263</v>
       </c>
       <c r="V12" t="n">
-        <v>1658.624260532507</v>
+        <v>1622.64324863252</v>
       </c>
       <c r="W12" t="n">
-        <v>1404.386903804306</v>
+        <v>1368.405891904318</v>
       </c>
       <c r="X12" t="n">
-        <v>1196.535403598773</v>
+        <v>1160.554391698786</v>
       </c>
       <c r="Y12" t="n">
-        <v>988.7751048338188</v>
+        <v>952.7940929338317</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>195.7097000304736</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="C13" t="n">
-        <v>195.7097000304736</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="D13" t="n">
-        <v>195.7097000304736</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="E13" t="n">
-        <v>195.7097000304736</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="I13" t="n">
         <v>48.81975253256327</v>
@@ -5229,22 +5229,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U13" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V13" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W13" t="n">
-        <v>351.2209996437976</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="X13" t="n">
-        <v>351.2209996437976</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="Y13" t="n">
-        <v>351.2209996437976</v>
+        <v>123.4837667669761</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.576882096602</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="C14" t="n">
-        <v>1369.576882096602</v>
+        <v>914.7992684176363</v>
       </c>
       <c r="D14" t="n">
-        <v>1369.576882096602</v>
+        <v>914.7992684176363</v>
       </c>
       <c r="E14" t="n">
-        <v>1369.576882096602</v>
+        <v>914.7992684176363</v>
       </c>
       <c r="F14" t="n">
-        <v>958.5909773069948</v>
+        <v>914.7992684176363</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>496.6116024882101</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>167.12429854717</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N14" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O14" t="n">
         <v>2037.925350935285</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>2152.282423226541</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U14" t="n">
-        <v>2152.282423226541</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V14" t="n">
-        <v>1821.21953588297</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W14" t="n">
-        <v>1743.042640357682</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="X14" t="n">
-        <v>1369.576882096602</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="Y14" t="n">
-        <v>1369.576882096602</v>
+        <v>1283.761785358048</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D15" t="n">
-        <v>518.8531079183253</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="E15" t="n">
-        <v>359.6156529128699</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F15" t="n">
         <v>359.6156529128699</v>
@@ -5357,52 +5357,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>2158.207869599013</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>182.1207844672437</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
         <v>48.81975253256327</v>
@@ -5439,7 +5439,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L16" t="n">
         <v>206.6297039190408</v>
@@ -5469,19 +5469,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W16" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X16" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y16" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1249.801555974595</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="C17" t="n">
-        <v>1249.801555974595</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="D17" t="n">
-        <v>1207.480627192637</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E17" t="n">
-        <v>1207.480627192637</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F17" t="n">
-        <v>796.4947224030295</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G17" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5515,19 +5515,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T17" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U17" t="n">
-        <v>1971.003775293977</v>
+        <v>1905.58973061433</v>
       </c>
       <c r="V17" t="n">
-        <v>1639.940887950406</v>
+        <v>1574.52684327076</v>
       </c>
       <c r="W17" t="n">
-        <v>1639.940887950406</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="X17" t="n">
-        <v>1639.940887950406</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="Y17" t="n">
-        <v>1249.801555974595</v>
+        <v>1221.758188000646</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C18" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D18" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E18" t="n">
-        <v>333.3841980565167</v>
+        <v>261.5207718748949</v>
       </c>
       <c r="F18" t="n">
-        <v>186.8496400834017</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="G18" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H18" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M18" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V18" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W18" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X18" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y18" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C19" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D19" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E19" t="n">
-        <v>492.7250760983651</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8351286004547</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G19" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H19" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256327</v>
@@ -5676,7 +5676,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K19" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L19" t="n">
         <v>206.6297039190408</v>
@@ -5703,22 +5703,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807582</v>
+        <v>627.4160100921315</v>
       </c>
       <c r="U19" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V19" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W19" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X19" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y19" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>796.4947224030295</v>
+        <v>1246.955840192009</v>
       </c>
       <c r="C20" t="n">
-        <v>796.4947224030295</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D20" t="n">
-        <v>796.4947224030295</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E20" t="n">
-        <v>796.4947224030295</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F20" t="n">
-        <v>796.4947224030295</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H20" t="n">
         <v>48.81975253256328</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977595</v>
       </c>
       <c r="L20" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540052</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307049</v>
@@ -5767,7 +5767,7 @@
         <v>1672.394424063531</v>
       </c>
       <c r="O20" t="n">
-        <v>2037.925350935285</v>
+        <v>2037.925350935286</v>
       </c>
       <c r="P20" t="n">
         <v>2312.223157255915</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U20" t="n">
-        <v>1717.22408130586</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V20" t="n">
-        <v>1717.22408130586</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W20" t="n">
-        <v>1364.455426035746</v>
+        <v>1620.421598453089</v>
       </c>
       <c r="X20" t="n">
-        <v>990.9896677746658</v>
+        <v>1246.955840192009</v>
       </c>
       <c r="Y20" t="n">
-        <v>796.4947224030295</v>
+        <v>1246.955840192009</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>547.7315422628066</v>
       </c>
       <c r="D21" t="n">
-        <v>506.150210885985</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E21" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256328</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256328</v>
+        <v>81.93751399838874</v>
       </c>
       <c r="K21" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883258</v>
       </c>
       <c r="L21" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137191</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309282</v>
       </c>
       <c r="N21" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827628</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346857</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256328</v>
+        <v>198.5593213595485</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81975253256328</v>
+        <v>198.5593213595485</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256328</v>
+        <v>198.5593213595485</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256328</v>
+        <v>198.5593213595485</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81975253256328</v>
+        <v>198.5593213595485</v>
       </c>
       <c r="G22" t="n">
         <v>48.81975253256328</v>
@@ -5913,49 +5913,49 @@
         <v>48.81975253256328</v>
       </c>
       <c r="K22" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L22" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O22" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581505</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="V22" t="n">
-        <v>338.2369225695239</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="W22" t="n">
-        <v>48.81975253256328</v>
+        <v>198.5593213595485</v>
       </c>
       <c r="X22" t="n">
-        <v>48.81975253256328</v>
+        <v>198.5593213595485</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256328</v>
+        <v>198.5593213595485</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>845.5939099204151</v>
+        <v>1301.465645217047</v>
       </c>
       <c r="C23" t="n">
-        <v>845.5939099204151</v>
+        <v>932.5031282766358</v>
       </c>
       <c r="D23" t="n">
-        <v>845.5939099204151</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E23" t="n">
-        <v>459.8056573221708</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
         <v>48.81975253256327</v>
@@ -6016,25 +6016,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T23" t="n">
-        <v>1971.003775293977</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U23" t="n">
-        <v>1916.025292598222</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V23" t="n">
-        <v>1584.962405254651</v>
+        <v>2040.834140551283</v>
       </c>
       <c r="W23" t="n">
-        <v>1232.193749984537</v>
+        <v>1688.065485281169</v>
       </c>
       <c r="X23" t="n">
-        <v>1232.193749984537</v>
+        <v>1688.065485281169</v>
       </c>
       <c r="Y23" t="n">
-        <v>1232.193749984537</v>
+        <v>1688.065485281169</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6068,22 +6068,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P24" t="n">
         <v>2283.899498973758</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
         <v>48.81975253256327</v>
@@ -6180,19 +6180,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V25" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W25" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1311.479799318116</v>
+        <v>1991.009791397003</v>
       </c>
       <c r="C26" t="n">
-        <v>1311.479799318116</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D26" t="n">
-        <v>1311.479799318116</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E26" t="n">
-        <v>925.6915467198714</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F26" t="n">
-        <v>514.7056419302639</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G26" t="n">
-        <v>96.51797600083768</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H26" t="n">
         <v>48.81975253256327</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.218971358049</v>
+        <v>2019.12837262474</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.218971358049</v>
+        <v>2019.12837262474</v>
       </c>
       <c r="Y26" t="n">
-        <v>1698.079639382237</v>
+        <v>1991.009791397003</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
         <v>48.81975253256327</v>
@@ -6338,19 +6338,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>492.7250760983651</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>345.8351286004547</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256327</v>
+        <v>176.7349134239008</v>
       </c>
       <c r="H28" t="n">
         <v>48.81975253256327</v>
@@ -6417,19 +6417,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V28" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1207.480627192637</v>
+        <v>1267.631526924731</v>
       </c>
       <c r="C29" t="n">
-        <v>1207.480627192637</v>
+        <v>898.669009984319</v>
       </c>
       <c r="D29" t="n">
-        <v>1207.480627192637</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="E29" t="n">
-        <v>1207.480627192637</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="F29" t="n">
-        <v>796.4947224030295</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G29" t="n">
-        <v>378.3070564736033</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2394.759193056802</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2213.480545124238</v>
       </c>
       <c r="T29" t="n">
-        <v>2315.282686576141</v>
+        <v>1993.865940455925</v>
       </c>
       <c r="U29" t="n">
-        <v>2315.282686576141</v>
+        <v>1993.865940455925</v>
       </c>
       <c r="V29" t="n">
-        <v>1984.21979923257</v>
+        <v>1993.865940455925</v>
       </c>
       <c r="W29" t="n">
-        <v>1984.21979923257</v>
+        <v>1641.097285185811</v>
       </c>
       <c r="X29" t="n">
-        <v>1984.21979923257</v>
+        <v>1267.631526924731</v>
       </c>
       <c r="Y29" t="n">
-        <v>1594.080467256759</v>
+        <v>1267.631526924731</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C30" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D30" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E30" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F30" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H30" t="n">
         <v>48.81975253256327</v>
@@ -6542,16 +6542,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N30" t="n">
         <v>1557.865593173221</v>
@@ -6566,28 +6566,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2316.764520037966</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V30" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W30" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X30" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="31">
@@ -6654,19 +6654,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U31" t="n">
-        <v>531.4937916364674</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V31" t="n">
-        <v>276.8093034305806</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W31" t="n">
-        <v>276.8093034305806</v>
+        <v>458.4577682608203</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256327</v>
+        <v>230.468217362803</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256327</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1284.457262582563</v>
+        <v>1246.955840192009</v>
       </c>
       <c r="C32" t="n">
-        <v>1284.457262582563</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D32" t="n">
-        <v>926.1915639758126</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E32" t="n">
-        <v>540.4033113775685</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F32" t="n">
-        <v>540.4033113775685</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256328</v>
@@ -6733,19 +6733,19 @@
         <v>2152.282423226541</v>
       </c>
       <c r="U32" t="n">
-        <v>2152.282423226541</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="V32" t="n">
-        <v>1821.21953588297</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="W32" t="n">
-        <v>1657.923020843643</v>
+        <v>1637.09517216782</v>
       </c>
       <c r="X32" t="n">
-        <v>1284.457262582563</v>
+        <v>1637.09517216782</v>
       </c>
       <c r="Y32" t="n">
-        <v>1284.457262582563</v>
+        <v>1246.955840192009</v>
       </c>
     </row>
     <row r="33">
@@ -6767,10 +6767,10 @@
         <v>297.2095735395882</v>
       </c>
       <c r="F33" t="n">
-        <v>150.6750155664732</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256328</v>
+        <v>155.419303992815</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256328</v>
@@ -6779,25 +6779,25 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6888,13 +6888,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>592.9214107754108</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U34" t="n">
-        <v>592.9214107754108</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V34" t="n">
-        <v>338.2369225695239</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W34" t="n">
         <v>48.81975253256328</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>889.8894437262729</v>
+        <v>1695.443167372171</v>
       </c>
       <c r="C35" t="n">
-        <v>889.8894437262729</v>
+        <v>1695.443167372171</v>
       </c>
       <c r="D35" t="n">
-        <v>889.8894437262729</v>
+        <v>1337.17746876542</v>
       </c>
       <c r="E35" t="n">
-        <v>504.1011911280287</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="F35" t="n">
-        <v>93.11528633842113</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2440.987626628164</v>
+        <v>2421.677580903365</v>
       </c>
       <c r="S35" t="n">
-        <v>2259.7089786956</v>
+        <v>2421.677580903365</v>
       </c>
       <c r="T35" t="n">
-        <v>2040.094374027286</v>
+        <v>2421.677580903365</v>
       </c>
       <c r="U35" t="n">
-        <v>2040.094374027286</v>
+        <v>2421.677580903365</v>
       </c>
       <c r="V35" t="n">
-        <v>2040.094374027286</v>
+        <v>2421.677580903365</v>
       </c>
       <c r="W35" t="n">
-        <v>2040.094374027286</v>
+        <v>2068.908925633251</v>
       </c>
       <c r="X35" t="n">
-        <v>1666.628615766206</v>
+        <v>1695.443167372171</v>
       </c>
       <c r="Y35" t="n">
-        <v>1276.489283790395</v>
+        <v>1695.443167372171</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D36" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E36" t="n">
-        <v>239.5596775960993</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F36" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
@@ -7025,43 +7025,43 @@
         <v>664.2381464478937</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N36" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>493.6995137284104</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C37" t="n">
-        <v>493.6995137284104</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D37" t="n">
-        <v>493.6995137284104</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E37" t="n">
-        <v>493.6995137284104</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F37" t="n">
-        <v>346.8095662305</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G37" t="n">
-        <v>346.8095662305</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
         <v>48.81975253256327</v>
@@ -7119,28 +7119,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>493.6995137284104</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>493.6995137284104</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T37" t="n">
-        <v>493.6995137284104</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U37" t="n">
-        <v>493.6995137284104</v>
+        <v>399.5684325393569</v>
       </c>
       <c r="V37" t="n">
-        <v>493.6995137284104</v>
+        <v>399.5684325393569</v>
       </c>
       <c r="W37" t="n">
-        <v>493.6995137284104</v>
+        <v>399.5684325393569</v>
       </c>
       <c r="X37" t="n">
-        <v>493.6995137284104</v>
+        <v>399.5684325393569</v>
       </c>
       <c r="Y37" t="n">
-        <v>493.6995137284104</v>
+        <v>399.5684325393569</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1263.781575849841</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C38" t="n">
-        <v>1263.781575849841</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="D38" t="n">
-        <v>1263.781575849841</v>
+        <v>921.8201793867386</v>
       </c>
       <c r="E38" t="n">
-        <v>877.9933232515971</v>
+        <v>536.0319267884943</v>
       </c>
       <c r="F38" t="n">
-        <v>467.0074184619895</v>
+        <v>125.0460219988867</v>
       </c>
       <c r="G38" t="n">
         <v>48.81975253256327</v>
@@ -7213,13 +7213,13 @@
         <v>2440.987626628164</v>
       </c>
       <c r="W38" t="n">
-        <v>2413.986506150855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X38" t="n">
-        <v>2040.520747889775</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y38" t="n">
-        <v>1650.381415913963</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.04191212118991</v>
+        <v>130.4284205002675</v>
       </c>
       <c r="C40" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D40" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E40" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F40" t="n">
-        <v>62.04191212118991</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G40" t="n">
         <v>48.81975253256327</v>
@@ -7365,19 +7365,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V40" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W40" t="n">
-        <v>62.04191212118991</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X40" t="n">
-        <v>62.04191212118991</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.04191212118991</v>
+        <v>130.4284205002675</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1611.831429569653</v>
+        <v>1370.556243950357</v>
       </c>
       <c r="C41" t="n">
-        <v>1611.831429569653</v>
+        <v>1370.556243950357</v>
       </c>
       <c r="D41" t="n">
-        <v>1611.831429569653</v>
+        <v>1370.556243950357</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.043176971408</v>
+        <v>984.7679913521126</v>
       </c>
       <c r="F41" t="n">
-        <v>815.0572721818007</v>
+        <v>573.7820865625051</v>
       </c>
       <c r="G41" t="n">
-        <v>396.8696062523745</v>
+        <v>155.5944206330789</v>
       </c>
       <c r="H41" t="n">
-        <v>67.38230231133446</v>
+        <v>155.5944206330789</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V41" t="n">
-        <v>2371.897027894854</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W41" t="n">
-        <v>2371.897027894854</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X41" t="n">
-        <v>1998.431269633774</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y41" t="n">
-        <v>1998.431269633774</v>
+        <v>1757.156084014479</v>
       </c>
     </row>
     <row r="42">
@@ -7478,10 +7478,10 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F42" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G42" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H42" t="n">
         <v>48.81975253256327</v>
@@ -7493,22 +7493,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>318.2287647883252</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>697.3559079137185</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1191.758623309281</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N42" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P42" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>169.5725348135579</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>169.5725348135579</v>
       </c>
       <c r="D43" t="n">
         <v>48.81975253256327</v>
@@ -7602,19 +7602,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>592.9214107754108</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V43" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W43" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X43" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1194.235634009152</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="C44" t="n">
-        <v>825.27311706874</v>
+        <v>1629.468752693363</v>
       </c>
       <c r="D44" t="n">
-        <v>467.0074184619895</v>
+        <v>1271.203054086612</v>
       </c>
       <c r="E44" t="n">
-        <v>467.0074184619895</v>
+        <v>885.4148014883679</v>
       </c>
       <c r="F44" t="n">
-        <v>467.0074184619895</v>
+        <v>474.4288966987603</v>
       </c>
       <c r="G44" t="n">
-        <v>48.81975253256327</v>
+        <v>56.24123076933404</v>
       </c>
       <c r="H44" t="n">
-        <v>48.81975253256327</v>
+        <v>56.24123076933404</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697315</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
         <v>412.3079679977586</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T44" t="n">
-        <v>2310.609379516157</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U44" t="n">
-        <v>2310.609379516157</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V44" t="n">
-        <v>2310.609379516157</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W44" t="n">
-        <v>1957.840724246043</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X44" t="n">
-        <v>1584.374965984963</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y44" t="n">
-        <v>1194.235634009152</v>
+        <v>1998.431269633774</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>627.4160100921315</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>627.4160100921315</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>627.4160100921315</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>338.2369225695239</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V46" t="n">
-        <v>338.2369225695239</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W46" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X46" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>287.1006199003852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617104</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617104</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085763</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.85469562617152</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>245.6177531937813</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817933</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617152</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>340.482471640322</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>233.1030882730268</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918563</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711642</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>289.3053491854098</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>192.3884445891958</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,25 +22625,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>135.9136207692153</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22685,16 +22685,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,34 +22704,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>181.0138317948241</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,13 +22865,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>45.32458090345089</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,34 +22941,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>13.0150280716195</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23178,34 +23178,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>261.1069775582528</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>29.85831379482579</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>97.39144430711912</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>61.77024252613214</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.8757935647466</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
@@ -23436,7 +23436,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>64.03780054626432</v>
       </c>
       <c r="J13" t="n">
         <v>52.22830032617343</v>
@@ -23469,7 +23469,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2872966473816</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>43.35379180046478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>271.8458421473781</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>118.8554155636028</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>59.40616540829446</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>25.08671930729065</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23709,10 +23709,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>312.7853221265451</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>118.0823000694097</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>21.7414833360076</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>35.8128782717595</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>11.31916535590881</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23943,16 +23943,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>212.3699225553129</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>5.54095649395498</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>193.6879427381337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>106.2795475015854</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>19.16703988607298</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>213.8779974765521</v>
@@ -24183,10 +24183,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>239.0477053310876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>300.7183346458946</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>196.8131991794388</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24420,10 +24420,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>239.0477053310876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>64.62846673490409</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>278.9711896680379</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>358.4005432405945</v>
       </c>
     </row>
     <row r="27">
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>92.88627525581299</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0547409226243</v>
+        <v>30.41873164020012</v>
       </c>
       <c r="I28" t="n">
         <v>137.955174638333</v>
@@ -24657,13 +24657,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>239.0477053310876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>22.63354351032829</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>92.97056797012843</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>35.81287827175935</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24894,13 +24894,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>178.2343623835337</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>106.1644009308525</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>187.5774188284788</v>
+        <v>90.44748721751591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>141.3464342174083</v>
       </c>
       <c r="G33" t="n">
-        <v>35.81287827175917</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25128,16 +25128,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>178.2202692317593</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>370.1532108023327</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.3996927459763</v>
+        <v>49.28274747842595</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>70.2016422976032</v>
       </c>
       <c r="G36" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25359,16 +25359,16 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
-        <v>5.665792108581996</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>261.5062543539465</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>338.5417824984718</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>322.5098594448775</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>86.45423981060065</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>154.319275032048</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25605,7 +25605,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>142.098368073942</v>
+        <v>54.76837093541506</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
@@ -25687,13 +25687,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>61.77024252613234</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>29.07021856002768</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25842,10 +25842,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>239.0477053310876</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>153.1280289005225</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>88.34399398074433</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
         <v>251.2418970482362</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>135.525535025472</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,7 +26070,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>138.0451235086659</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
         <v>213.8779974765521</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1018720.438123694</v>
+        <v>432255.9283617517</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1018720.438123694</v>
+        <v>432255.9283617518</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1018720.438123694</v>
+        <v>432255.9283617517</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>685874.0333297453</v>
+        <v>685874.0333297454</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>685874.0333297453</v>
+        <v>685874.0333297454</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>685874.0333297454</v>
+        <v>685874.0333297453</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>685874.0333297453</v>
+        <v>685874.0333297454</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>685874.0333297454</v>
+        <v>685874.0333297453</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685874.0333297455</v>
+        <v>685874.0333297454</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>685874.0333297452</v>
+        <v>685874.0333297453</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>685874.0333297453</v>
+        <v>685874.0333297454</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>685874.0333297453</v>
+        <v>685874.0333297454</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253557</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="E2" t="n">
         <v>298256.6328032463</v>
@@ -26328,31 +26328,31 @@
         <v>298256.6328032463</v>
       </c>
       <c r="G2" t="n">
-        <v>298256.6328032463</v>
+        <v>298256.6328032464</v>
       </c>
       <c r="H2" t="n">
         <v>298256.6328032461</v>
       </c>
       <c r="I2" t="n">
-        <v>298256.6328032463</v>
+        <v>298256.6328032464</v>
       </c>
       <c r="J2" t="n">
         <v>298256.6328032463</v>
       </c>
       <c r="K2" t="n">
-        <v>298256.6328032461</v>
+        <v>298256.6328032463</v>
       </c>
       <c r="L2" t="n">
         <v>298256.6328032463</v>
       </c>
       <c r="M2" t="n">
-        <v>298256.6328032463</v>
+        <v>298256.6328032461</v>
       </c>
       <c r="N2" t="n">
         <v>298256.6328032463</v>
       </c>
       <c r="O2" t="n">
-        <v>298256.6328032462</v>
+        <v>298256.6328032465</v>
       </c>
       <c r="P2" t="n">
         <v>298256.6328032463</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327801</v>
+        <v>369435.2991327802</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312595.3744187171</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>312595.3744187171</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>312595.3744187171</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
         <v>35595.99830849798</v>
@@ -26444,16 +26444,16 @@
         <v>35595.99830849799</v>
       </c>
       <c r="K4" t="n">
+        <v>35595.99830849798</v>
+      </c>
+      <c r="L4" t="n">
         <v>35595.99830849799</v>
-      </c>
-      <c r="L4" t="n">
-        <v>35595.99830849798</v>
       </c>
       <c r="M4" t="n">
         <v>35595.99830849798</v>
       </c>
       <c r="N4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="O4" t="n">
         <v>35595.99830849798</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9926.898711329392</v>
+        <v>18854.39164289448</v>
       </c>
       <c r="C6" t="n">
-        <v>90696.33024287713</v>
+        <v>99623.82317444221</v>
       </c>
       <c r="D6" t="n">
-        <v>90696.33024287695</v>
+        <v>99623.82317444221</v>
       </c>
       <c r="E6" t="n">
-        <v>-157879.6272321024</v>
+        <v>-151607.5951157435</v>
       </c>
       <c r="F6" t="n">
-        <v>211555.6719006776</v>
+        <v>217827.7040170367</v>
       </c>
       <c r="G6" t="n">
-        <v>211555.6719006776</v>
+        <v>217827.7040170368</v>
       </c>
       <c r="H6" t="n">
-        <v>211555.6719006775</v>
+        <v>217827.7040170365</v>
       </c>
       <c r="I6" t="n">
-        <v>211555.6719006776</v>
+        <v>217827.7040170368</v>
       </c>
       <c r="J6" t="n">
-        <v>148495.7293015714</v>
+        <v>154767.7614179304</v>
       </c>
       <c r="K6" t="n">
-        <v>211555.6719006775</v>
+        <v>217827.7040170367</v>
       </c>
       <c r="L6" t="n">
-        <v>211555.6719006776</v>
+        <v>217827.7040170366</v>
       </c>
       <c r="M6" t="n">
-        <v>119541.4266195845</v>
+        <v>125813.4587359435</v>
       </c>
       <c r="N6" t="n">
-        <v>211555.6719006776</v>
+        <v>217827.7040170367</v>
       </c>
       <c r="O6" t="n">
-        <v>211555.6719006775</v>
+        <v>217827.7040170368</v>
       </c>
       <c r="P6" t="n">
-        <v>211555.6719006776</v>
+        <v>217827.7040170367</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="G3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="H3" t="n">
         <v>322.6158759445108</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>301.9037271885252</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27460,16 +27460,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>234.0777810925296</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,34 +27536,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.05569651810563</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>351.1641048164582</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>75.72709062278427</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27754,16 +27754,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,34 +27773,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.36645333167576</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8333861825618</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27934,25 +27934,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>52.83897368328643</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>37.22501299855256</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31995,7 +31995,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J14" t="n">
         <v>110.0768611093284</v>
@@ -32007,7 +32007,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N14" t="n">
         <v>231.4177177265083</v>
@@ -32019,16 +32019,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517339</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S14" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I15" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K15" t="n">
         <v>112.054233062727</v>
@@ -32092,22 +32092,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O15" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R15" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T15" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U15" t="n">
         <v>0.04565318999214778</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L16" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q16" t="n">
         <v>48.71499726762114</v>
@@ -32183,13 +32183,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J17" t="n">
         <v>110.0768611093284</v>
@@ -32244,7 +32244,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N17" t="n">
         <v>231.4177177265083</v>
@@ -32256,16 +32256,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I18" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K18" t="n">
         <v>112.054233062727</v>
@@ -32329,22 +32329,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O18" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P18" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R18" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T18" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U18" t="n">
         <v>0.04565318999214778</v>
@@ -32384,34 +32384,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q19" t="n">
         <v>48.71499726762114</v>
@@ -32420,13 +32420,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T19" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K21" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R21" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L22" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
@@ -35503,7 +35503,7 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P12" t="n">
         <v>316.9982669508155</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K14" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L14" t="n">
         <v>386.5629597537834</v>
@@ -35661,13 +35661,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O14" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P14" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35743,10 +35743,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691792</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M16" t="n">
         <v>130.7783941571062</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K17" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L17" t="n">
         <v>386.5629597537834</v>
@@ -35898,13 +35898,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O17" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P17" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>238.6780311009466</v>
@@ -35971,7 +35971,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>309.3596570595963</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -35980,10 +35980,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>316.9982669508155</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L19" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M19" t="n">
         <v>130.7783941571062</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>33.45228430891461</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
         <v>528.4798964831782</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.45228430891457</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
-        <v>257.7341181179921</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
         <v>499.39668221774</v>
@@ -36454,7 +36454,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926717</v>
       </c>
       <c r="Q24" t="n">
         <v>158.6748764185921</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
@@ -36922,7 +36922,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009466</v>
@@ -37159,7 +37159,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891457</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.39668221774</v>
+        <v>374.1740901080621</v>
       </c>
       <c r="N36" t="n">
         <v>528.4798964831782</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009466</v>
@@ -37633,7 +37633,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
-        <v>207.3158823613948</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.39668221774</v>
+        <v>309.3596570595963</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.12757175471535</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K44" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464915</v>
       </c>
       <c r="L44" t="n">
         <v>386.5629597537834</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.4428713250345</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
